--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/30/Output_26_41.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/30/Output_26_41.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>56737.80951134268</v>
+        <v>11277738.02633872</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>56737.80951134268</v>
+        <v>11277738.02633872</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>226.9347585188313</v>
+        <v>44636.71790575785</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>226.9347585188313</v>
+        <v>44636.71790575785</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1113422334.325608</v>
+        <v>46617400.68944674</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>10184.02715339265</v>
+        <v>1159475.631027254</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>18796.38713559559</v>
+        <v>2072523.985268385</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>27409.46481227143</v>
+        <v>2985572.339509517</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>36047.04396771329</v>
+        <v>3898628.723617328</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>44684.47683479808</v>
+        <v>4811677.07785846</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>53322.21060784609</v>
+        <v>5724725.432099591</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>61959.84779379478</v>
+        <v>6637773.786340719</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>70597.48497974347</v>
+        <v>7550822.140581846</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>79235.12216569216</v>
+        <v>8463870.494822973</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>87872.75935164081</v>
+        <v>9376918.849064101</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>96510.39653758951</v>
+        <v>10289967.20330524</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>105148.0337235381</v>
+        <v>11203015.55754637</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>113785.6709094868</v>
+        <v>12116063.91178751</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>122437.175833684</v>
+        <v>13020893.82805128</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>131105.2501174432</v>
+        <v>13927469.85819608</v>
       </c>
     </row>
   </sheetData>
@@ -27037,25 +27037,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
         <v>388</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -27144,19 +27144,19 @@
         <v>421</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
